--- a/ocms/src/test/resources/DownloadedFiles/Chat Intent Skill Mapping.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Intent Skill Mapping.xlsx
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Test</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2019 14:12:39</t>
+    <t xml:space="preserve">14/11/2019 14:28:54</t>
   </si>
 </sst>
 </file>
